--- a/post12/Boston Temps.xlsx
+++ b/post12/Boston Temps.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredkramer/Documents/python/hummingbird/post12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB61D06A-E744-8F4D-AC56-DE4BCE55F55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA32275F-C562-2944-B5CC-C5705DDE1E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{C9E4FABB-169A-3C48-AAC9-C4B42EFF4CF6}"/>
+    <workbookView xWindow="520" yWindow="1100" windowWidth="26840" windowHeight="15940" xr2:uid="{C9E4FABB-169A-3C48-AAC9-C4B42EFF4CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1432,6 +1432,72 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1709A9F5-DA18-AA27-2A24-BBB439C095B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="1841500"/>
+          <a:ext cx="660400" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1757,7 +1823,7 @@
   <dimension ref="B3:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
